--- a/statistics/HistoricalDistanceData/historical_distance/Q7425636-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q7425636-en.xlsx
@@ -31,25 +31,25 @@
     <t>uri</t>
   </si>
   <si>
+    <t>Worst blizzard in years blasts Saskatchewan</t>
+  </si>
+  <si>
     <t>Blizzard blasts Saskatoon</t>
   </si>
   <si>
-    <t>Worst blizzard in years blasts Saskatchewan</t>
+    <t>2007-01-10T00:00:00UTC</t>
   </si>
   <si>
     <t>2007-01-11T00:00:00UTC</t>
   </si>
   <si>
-    <t>2007-01-10T00:00:00UTC</t>
-  </si>
-  <si>
     <t>day_2_to_30</t>
   </si>
   <si>
+    <t>http://www.cbc.ca/news/canada/saskatchewan/worst-blizzard-in-years-blasts-saskatchewan-1.690714</t>
+  </si>
+  <si>
     <t>http://www.canada.com/reginaleaderpost/news/story.html?id=1c4514e7-f28f-4411-806b-92e6eb45d337</t>
-  </si>
-  <si>
-    <t>http://www.cbc.ca/news/canada/saskatchewan/worst-blizzard-in-years-blasts-saskatchewan-1.690714</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -468,7 +468,7 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
